--- a/public/uploads/budgetsample.xlsx
+++ b/public/uploads/budgetsample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>Account</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Arduino Uno (1 Orang)</t>
   </si>
   <si>
-    <t>2017-2019</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -130,70 +127,46 @@
     <t>Advanced Linux Server Maintenance</t>
   </si>
   <si>
-    <t>2017-2020</t>
-  </si>
-  <si>
     <t>6-2975</t>
   </si>
   <si>
     <t>Wireless Advanced (1 Orang)</t>
   </si>
   <si>
-    <t>2017-2021</t>
-  </si>
-  <si>
     <t>6-2976</t>
   </si>
   <si>
     <t>Ruby on Rails (2 persons)</t>
   </si>
   <si>
-    <t>2017-2022</t>
-  </si>
-  <si>
     <t>6-2977</t>
   </si>
   <si>
     <t>Business Process Management</t>
   </si>
   <si>
-    <t>2017-2023</t>
-  </si>
-  <si>
     <t>6-2978</t>
   </si>
   <si>
     <t>IT Risk Management</t>
   </si>
   <si>
-    <t>2017-2024</t>
-  </si>
-  <si>
     <t>6-2979</t>
   </si>
   <si>
     <t>Learning Incentive Program (2 modules / semester)</t>
   </si>
   <si>
-    <t>2017-2025</t>
-  </si>
-  <si>
     <t>6-2980</t>
   </si>
   <si>
     <t>Instructor (Rp300.000/session x 8 x 2)</t>
   </si>
   <si>
-    <t>2017-2026</t>
-  </si>
-  <si>
     <t>6-2981</t>
   </si>
   <si>
     <t>Snack &amp; Drink for participants (Rp5.000 x 20 x 8 x 2)</t>
-  </si>
-  <si>
-    <t>2017-2027</t>
   </si>
 </sst>
 </file>
@@ -204,8 +177,8 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -237,24 +210,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,43 +317,28 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -313,69 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,19 +363,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,163 +453,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +557,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,26 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,22 +611,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,16 +641,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,145 +659,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,14 +822,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1176,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1209,40 +1182,40 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1584,13 +1557,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>3500000</v>
@@ -1601,19 +1574,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="1">
         <v>10200000</v>
@@ -1624,19 +1597,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="1">
         <v>4500000</v>
@@ -1647,19 +1620,19 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="1">
         <v>5400000</v>
@@ -1703,19 +1676,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>4500000</v>
@@ -1726,19 +1699,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="1">
         <v>4500000</v>
@@ -1749,36 +1722,36 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>9600000</v>
@@ -1798,19 +1771,19 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>3200000</v>
